--- a/public/Research-Infotech.xlsx
+++ b/public/Research-Infotech.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId1"/>
-    <sheet name="TRADE INDIA RISK PRO" sheetId="4" r:id="rId2"/>
+    <sheet name="Research Infotech Risk Profile" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="192">
   <si>
     <t xml:space="preserve">What is your Age Group ?  </t>
   </si>
@@ -899,9 +899,6 @@
   </si>
   <si>
     <t>Investment Advisor</t>
-  </si>
-  <si>
-    <t>Jasmeet Bagga proprietor Research Infotech Investment Advisor</t>
   </si>
   <si>
     <t>we do not offer  any REFUND POLICY. ALL DISPUTES ARE SUBJECT TO INDORE (MADHYAPRADESH) JURISDICTION ONLY.Stock and commodity market and investment are subject to market risk</t>
@@ -1015,6 +1012,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -1104,13 +1108,6 @@
     <font>
       <sz val="9.5"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1278,13 +1275,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1296,64 +1317,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1365,25 +1383,67 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,71 +1455,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5226,6 +5223,53 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41414</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>223630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>596347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4538" name="Picture 442"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4116457" y="29610326"/>
+          <a:ext cx="2128630" cy="372717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5534,107 +5578,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15.75">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="45" t="str">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="50" t="str">
         <f>IF(D7&lt;=13, "LOW",IF(D7&lt;18, "MEDIUM", "HIGH"))</f>
         <v>LOW</v>
       </c>
-      <c r="E6" s="45"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="45">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="50">
         <f>SUM(E11,E17,E21,E26,E30,E36,E45,E50,E54,E60,E64,E70,E75,E80,E85,E91,E97,E103,E107,E113,E120)</f>
         <v>2</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="2" t="s">
         <v>119</v>
       </c>
@@ -5645,20 +5689,20 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="39">
+      <c r="A10" s="41">
         <v>1</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="39"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -5666,7 +5710,7 @@
       <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="43">
         <f>SUM(F11:F15)</f>
         <v>2</v>
       </c>
@@ -5679,7 +5723,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
@@ -5687,7 +5731,7 @@
       <c r="D12" s="4">
         <v>1.5</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="1">
         <f t="shared" ref="F12:F75" si="0">IF(G12=TRUE,D12,0)</f>
         <v>0</v>
@@ -5697,7 +5741,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="4" t="s">
         <v>121</v>
       </c>
@@ -5707,7 +5751,7 @@
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5717,7 +5761,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="39"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
@@ -5725,7 +5769,7 @@
       <c r="D14" s="4">
         <v>0.5</v>
       </c>
-      <c r="E14" s="44"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5735,7 +5779,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="39"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -5743,7 +5787,7 @@
       <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5753,20 +5797,20 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="39">
+      <c r="A16" s="41">
         <v>2</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="39"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
@@ -5774,7 +5818,7 @@
       <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="43">
         <f>SUM(F17:F19)</f>
         <v>0</v>
       </c>
@@ -5787,7 +5831,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="39"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
@@ -5795,7 +5839,7 @@
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5805,7 +5849,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="39"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
@@ -5813,7 +5857,7 @@
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5823,20 +5867,20 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="39">
+      <c r="A20" s="41">
         <v>3</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="39"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="4" t="s">
         <v>38</v>
       </c>
@@ -5844,7 +5888,7 @@
       <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="43">
         <f>SUM(F21:F24)</f>
         <v>0</v>
       </c>
@@ -5857,7 +5901,7 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="39"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="4" t="s">
         <v>100</v>
       </c>
@@ -5865,7 +5909,7 @@
       <c r="D22" s="4">
         <v>0.5</v>
       </c>
-      <c r="E22" s="44"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5875,7 +5919,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="39"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
@@ -5883,7 +5927,7 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5893,7 +5937,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="39"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="4" t="s">
         <v>101</v>
       </c>
@@ -5901,7 +5945,7 @@
       <c r="D24" s="4">
         <v>1.5</v>
       </c>
-      <c r="E24" s="44"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5911,20 +5955,20 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="39">
+      <c r="A25" s="41">
         <v>4</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="39"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
@@ -5932,7 +5976,7 @@
       <c r="D26" s="4">
         <v>0.5</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="43">
         <f>SUM(F26:F28)</f>
         <v>0</v>
       </c>
@@ -5945,7 +5989,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="39"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="4" t="s">
         <v>43</v>
       </c>
@@ -5953,7 +5997,7 @@
       <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="E27" s="44"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5963,7 +6007,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="39"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="4" t="s">
         <v>44</v>
       </c>
@@ -5971,7 +6015,7 @@
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5981,20 +6025,20 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="39">
+      <c r="A29" s="41">
         <v>5</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="39"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
@@ -6002,7 +6046,7 @@
       <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="43">
         <f>SUM(F30:F34)</f>
         <v>0</v>
       </c>
@@ -6015,7 +6059,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75">
-      <c r="A31" s="39"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="4" t="s">
         <v>102</v>
       </c>
@@ -6023,7 +6067,7 @@
       <c r="D31" s="4">
         <v>0.5</v>
       </c>
-      <c r="E31" s="44"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6033,7 +6077,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="39"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="4" t="s">
         <v>46</v>
       </c>
@@ -6041,7 +6085,7 @@
       <c r="D32" s="4">
         <v>1</v>
       </c>
-      <c r="E32" s="44"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6051,7 +6095,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="39"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
@@ -6059,7 +6103,7 @@
       <c r="D33" s="4">
         <v>1.5</v>
       </c>
-      <c r="E33" s="44"/>
+      <c r="E33" s="43"/>
       <c r="F33" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6069,7 +6113,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="39"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
@@ -6077,7 +6121,7 @@
       <c r="D34" s="6">
         <v>2</v>
       </c>
-      <c r="E34" s="44"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6087,26 +6131,26 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="39">
+      <c r="A35" s="41">
         <v>6</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="15.75">
-      <c r="A36" s="39"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="44" t="s">
+      <c r="E36" s="43" t="s">
         <v>118</v>
       </c>
       <c r="F36" s="1">
@@ -6118,7 +6162,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="39"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="4" t="s">
         <v>86</v>
       </c>
@@ -6127,7 +6171,7 @@
         <f>IF(G37=TRUE,B37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E37" s="44"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6137,7 +6181,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="39"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="4" t="s">
         <v>85</v>
       </c>
@@ -6146,7 +6190,7 @@
         <f t="shared" ref="D38:D42" si="1">IF(G38=TRUE,B38," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E38" s="44"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6156,13 +6200,13 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="39"/>
+      <c r="A39" s="41"/>
       <c r="B39" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="44"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6172,7 +6216,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="39"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="4" t="s">
         <v>84</v>
       </c>
@@ -6181,7 +6225,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E40" s="44"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6191,7 +6235,7 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="39"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="4" t="s">
         <v>83</v>
       </c>
@@ -6200,7 +6244,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E41" s="44"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6210,7 +6254,7 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="39"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
@@ -6219,7 +6263,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E42" s="44"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6229,13 +6273,13 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="39"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="44"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6245,20 +6289,20 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="39">
+      <c r="A44" s="41">
         <v>7</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="39"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="4" t="s">
         <v>38</v>
       </c>
@@ -6266,7 +6310,7 @@
       <c r="D45" s="4">
         <v>0.5</v>
       </c>
-      <c r="E45" s="44">
+      <c r="E45" s="43">
         <f>SUM(F45:F48)</f>
         <v>0</v>
       </c>
@@ -6279,7 +6323,7 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="39"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="4" t="s">
         <v>39</v>
       </c>
@@ -6287,7 +6331,7 @@
       <c r="D46" s="4">
         <v>1</v>
       </c>
-      <c r="E46" s="44"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6297,7 +6341,7 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="39"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="4" t="s">
         <v>40</v>
       </c>
@@ -6305,7 +6349,7 @@
       <c r="D47" s="4">
         <v>1.5</v>
       </c>
-      <c r="E47" s="44"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6315,7 +6359,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="39"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="4" t="s">
         <v>41</v>
       </c>
@@ -6323,7 +6367,7 @@
       <c r="D48" s="4">
         <v>2</v>
       </c>
-      <c r="E48" s="44"/>
+      <c r="E48" s="43"/>
       <c r="F48" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6333,20 +6377,20 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="39">
+      <c r="A49" s="41">
         <v>8</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="39"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="4" t="s">
         <v>81</v>
       </c>
@@ -6354,7 +6398,7 @@
       <c r="D50" s="4">
         <v>0</v>
       </c>
-      <c r="E50" s="44">
+      <c r="E50" s="43">
         <f>SUM(F50:F52)</f>
         <v>0</v>
       </c>
@@ -6367,7 +6411,7 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="39"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="4" t="s">
         <v>80</v>
       </c>
@@ -6375,7 +6419,7 @@
       <c r="D51" s="4">
         <v>0.5</v>
       </c>
-      <c r="E51" s="44"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6385,7 +6429,7 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="39"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="4" t="s">
         <v>106</v>
       </c>
@@ -6393,7 +6437,7 @@
       <c r="D52" s="4">
         <v>1</v>
       </c>
-      <c r="E52" s="44"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6403,22 +6447,22 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="39">
+      <c r="A53" s="41">
         <v>9</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43" t="s">
+      <c r="C53" s="42"/>
+      <c r="D53" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E53" s="43"/>
+      <c r="E53" s="42"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="39"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="4" t="s">
         <v>79</v>
       </c>
@@ -6426,7 +6470,7 @@
       <c r="D54" s="4">
         <v>1</v>
       </c>
-      <c r="E54" s="44">
+      <c r="E54" s="43">
         <f>SUM(F54:F58)</f>
         <v>0</v>
       </c>
@@ -6439,7 +6483,7 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="39"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="4" t="s">
         <v>78</v>
       </c>
@@ -6447,7 +6491,7 @@
       <c r="D55" s="4">
         <v>0</v>
       </c>
-      <c r="E55" s="44"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6457,7 +6501,7 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="39"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="4" t="s">
         <v>77</v>
       </c>
@@ -6465,7 +6509,7 @@
       <c r="D56" s="4">
         <v>0.5</v>
       </c>
-      <c r="E56" s="44"/>
+      <c r="E56" s="43"/>
       <c r="F56" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6475,7 +6519,7 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="39"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="4" t="s">
         <v>76</v>
       </c>
@@ -6483,7 +6527,7 @@
       <c r="D57" s="4">
         <v>0.5</v>
       </c>
-      <c r="E57" s="44"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6493,7 +6537,7 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="39"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="4" t="s">
         <v>75</v>
       </c>
@@ -6501,7 +6545,7 @@
       <c r="D58" s="4">
         <v>1</v>
       </c>
-      <c r="E58" s="44"/>
+      <c r="E58" s="43"/>
       <c r="F58" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6511,20 +6555,20 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="39">
+      <c r="A59" s="41">
         <v>10</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="39"/>
+      <c r="A60" s="41"/>
       <c r="B60" s="4" t="s">
         <v>48</v>
       </c>
@@ -6532,7 +6576,7 @@
       <c r="D60" s="4">
         <v>1</v>
       </c>
-      <c r="E60" s="44">
+      <c r="E60" s="43">
         <f>SUM(F60:F62)</f>
         <v>0</v>
       </c>
@@ -6545,7 +6589,7 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="39"/>
+      <c r="A61" s="41"/>
       <c r="B61" s="4" t="s">
         <v>49</v>
       </c>
@@ -6553,7 +6597,7 @@
       <c r="D61" s="4">
         <v>0.5</v>
       </c>
-      <c r="E61" s="44"/>
+      <c r="E61" s="43"/>
       <c r="F61" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6563,7 +6607,7 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="39"/>
+      <c r="A62" s="41"/>
       <c r="B62" s="4" t="s">
         <v>50</v>
       </c>
@@ -6571,7 +6615,7 @@
       <c r="D62" s="4">
         <v>0</v>
       </c>
-      <c r="E62" s="44"/>
+      <c r="E62" s="43"/>
       <c r="F62" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6581,20 +6625,20 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="39">
+      <c r="A63" s="41">
         <v>11</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="39"/>
+      <c r="A64" s="41"/>
       <c r="B64" s="4" t="s">
         <v>74</v>
       </c>
@@ -6602,7 +6646,7 @@
       <c r="D64" s="4">
         <v>0</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="43">
         <f>SUM(F64:F68)</f>
         <v>0</v>
       </c>
@@ -6615,7 +6659,7 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="39"/>
+      <c r="A65" s="41"/>
       <c r="B65" s="4" t="s">
         <v>73</v>
       </c>
@@ -6623,7 +6667,7 @@
       <c r="D65" s="4">
         <v>0</v>
       </c>
-      <c r="E65" s="44"/>
+      <c r="E65" s="43"/>
       <c r="F65" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6633,7 +6677,7 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="39"/>
+      <c r="A66" s="41"/>
       <c r="B66" s="4" t="s">
         <v>72</v>
       </c>
@@ -6641,7 +6685,7 @@
       <c r="D66" s="4">
         <v>0.5</v>
       </c>
-      <c r="E66" s="44"/>
+      <c r="E66" s="43"/>
       <c r="F66" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6651,7 +6695,7 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="39"/>
+      <c r="A67" s="41"/>
       <c r="B67" s="4" t="s">
         <v>71</v>
       </c>
@@ -6659,7 +6703,7 @@
       <c r="D67" s="4">
         <v>1</v>
       </c>
-      <c r="E67" s="44"/>
+      <c r="E67" s="43"/>
       <c r="F67" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6669,7 +6713,7 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="39"/>
+      <c r="A68" s="41"/>
       <c r="B68" s="4" t="s">
         <v>70</v>
       </c>
@@ -6677,7 +6721,7 @@
       <c r="D68" s="4">
         <v>1.5</v>
       </c>
-      <c r="E68" s="44"/>
+      <c r="E68" s="43"/>
       <c r="F68" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6687,22 +6731,22 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="39">
+      <c r="A69" s="41">
         <v>12</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43" t="s">
+      <c r="C69" s="42"/>
+      <c r="D69" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="43"/>
+      <c r="E69" s="42"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="39"/>
+      <c r="A70" s="41"/>
       <c r="B70" s="4" t="s">
         <v>51</v>
       </c>
@@ -6711,7 +6755,7 @@
         <f>IF(G70=TRUE,B70," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E70" s="44" t="s">
+      <c r="E70" s="43" t="s">
         <v>118</v>
       </c>
       <c r="F70" s="1">
@@ -6723,7 +6767,7 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="39"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="4" t="s">
         <v>52</v>
       </c>
@@ -6732,7 +6776,7 @@
         <f t="shared" ref="D71:D73" si="2">IF(G71=TRUE,B71," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E71" s="44"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6742,7 +6786,7 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="39"/>
+      <c r="A72" s="41"/>
       <c r="B72" s="4" t="s">
         <v>53</v>
       </c>
@@ -6751,7 +6795,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E72" s="44"/>
+      <c r="E72" s="43"/>
       <c r="F72" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6761,7 +6805,7 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="39"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="4" t="s">
         <v>54</v>
       </c>
@@ -6770,7 +6814,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E73" s="44"/>
+      <c r="E73" s="43"/>
       <c r="F73" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6780,22 +6824,22 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="39">
+      <c r="A74" s="41">
         <v>13</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43" t="s">
+      <c r="C74" s="42"/>
+      <c r="D74" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E74" s="43"/>
+      <c r="E74" s="42"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="39"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="4" t="s">
         <v>51</v>
       </c>
@@ -6804,7 +6848,7 @@
         <f>IF(G75=TRUE,B75," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E75" s="44" t="s">
+      <c r="E75" s="43" t="s">
         <v>118</v>
       </c>
       <c r="F75" s="1">
@@ -6816,7 +6860,7 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="39"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="4" t="s">
         <v>52</v>
       </c>
@@ -6825,7 +6869,7 @@
         <f t="shared" ref="D76:D78" si="3">IF(G76=TRUE,B76," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E76" s="44"/>
+      <c r="E76" s="43"/>
       <c r="F76" s="1">
         <f t="shared" ref="F76:F126" si="4">IF(G76=TRUE,D76,0)</f>
         <v>0</v>
@@ -6835,7 +6879,7 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="39"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="4" t="s">
         <v>53</v>
       </c>
@@ -6844,7 +6888,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E77" s="44"/>
+      <c r="E77" s="43"/>
       <c r="F77" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6854,7 +6898,7 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="39"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="4" t="s">
         <v>54</v>
       </c>
@@ -6863,7 +6907,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E78" s="44"/>
+      <c r="E78" s="43"/>
       <c r="F78" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6873,22 +6917,22 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="39">
+      <c r="A79" s="41">
         <v>14</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43" t="s">
+      <c r="C79" s="42"/>
+      <c r="D79" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E79" s="38"/>
+      <c r="E79" s="46"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="39"/>
+      <c r="A80" s="41"/>
       <c r="B80" s="4" t="s">
         <v>51</v>
       </c>
@@ -6897,7 +6941,7 @@
         <f>IF(G80=TRUE,B80," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E80" s="44" t="s">
+      <c r="E80" s="43" t="s">
         <v>118</v>
       </c>
       <c r="F80" s="1">
@@ -6909,7 +6953,7 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="39"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="4" t="s">
         <v>52</v>
       </c>
@@ -6918,7 +6962,7 @@
         <f t="shared" ref="D81:D83" si="5">IF(G81=TRUE,B81," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E81" s="44"/>
+      <c r="E81" s="43"/>
       <c r="F81" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6928,7 +6972,7 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="39"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="4" t="s">
         <v>53</v>
       </c>
@@ -6937,7 +6981,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E82" s="44"/>
+      <c r="E82" s="43"/>
       <c r="F82" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6947,7 +6991,7 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="39"/>
+      <c r="A83" s="41"/>
       <c r="B83" s="4" t="s">
         <v>54</v>
       </c>
@@ -6956,7 +7000,7 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E83" s="44"/>
+      <c r="E83" s="43"/>
       <c r="F83" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6966,20 +7010,20 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75">
-      <c r="A84" s="39">
+      <c r="A84" s="41">
         <v>15</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
       <c r="E84" s="8"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="39"/>
+      <c r="A85" s="41"/>
       <c r="B85" s="4" t="s">
         <v>55</v>
       </c>
@@ -6987,7 +7031,7 @@
       <c r="D85" s="4">
         <v>2</v>
       </c>
-      <c r="E85" s="44">
+      <c r="E85" s="43">
         <f>SUM(F85:F89)</f>
         <v>0</v>
       </c>
@@ -7000,7 +7044,7 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="39"/>
+      <c r="A86" s="41"/>
       <c r="B86" s="4" t="s">
         <v>56</v>
       </c>
@@ -7008,7 +7052,7 @@
       <c r="D86" s="4">
         <v>1.5</v>
       </c>
-      <c r="E86" s="44"/>
+      <c r="E86" s="43"/>
       <c r="F86" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7018,7 +7062,7 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="39"/>
+      <c r="A87" s="41"/>
       <c r="B87" s="4" t="s">
         <v>57</v>
       </c>
@@ -7026,7 +7070,7 @@
       <c r="D87" s="4">
         <v>1</v>
       </c>
-      <c r="E87" s="44"/>
+      <c r="E87" s="43"/>
       <c r="F87" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7036,7 +7080,7 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="39"/>
+      <c r="A88" s="41"/>
       <c r="B88" s="4" t="s">
         <v>58</v>
       </c>
@@ -7044,7 +7088,7 @@
       <c r="D88" s="4">
         <v>0.5</v>
       </c>
-      <c r="E88" s="44"/>
+      <c r="E88" s="43"/>
       <c r="F88" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7054,7 +7098,7 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="39"/>
+      <c r="A89" s="41"/>
       <c r="B89" s="4" t="s">
         <v>59</v>
       </c>
@@ -7062,7 +7106,7 @@
       <c r="D89" s="4">
         <v>0</v>
       </c>
-      <c r="E89" s="44"/>
+      <c r="E89" s="43"/>
       <c r="F89" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7072,22 +7116,22 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="39">
+      <c r="A90" s="41">
         <v>16</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43" t="s">
+      <c r="C90" s="42"/>
+      <c r="D90" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E90" s="43"/>
+      <c r="E90" s="42"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="39"/>
+      <c r="A91" s="41"/>
       <c r="B91" s="4" t="s">
         <v>60</v>
       </c>
@@ -7095,7 +7139,7 @@
       <c r="D91" s="4">
         <v>0</v>
       </c>
-      <c r="E91" s="44">
+      <c r="E91" s="43">
         <f>SUM(F91:F95)</f>
         <v>0</v>
       </c>
@@ -7108,7 +7152,7 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="39"/>
+      <c r="A92" s="41"/>
       <c r="B92" s="4" t="s">
         <v>61</v>
       </c>
@@ -7116,7 +7160,7 @@
       <c r="D92" s="4">
         <v>0.5</v>
       </c>
-      <c r="E92" s="44"/>
+      <c r="E92" s="43"/>
       <c r="F92" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7126,7 +7170,7 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="39"/>
+      <c r="A93" s="41"/>
       <c r="B93" s="4" t="s">
         <v>107</v>
       </c>
@@ -7134,7 +7178,7 @@
       <c r="D93" s="4">
         <v>1</v>
       </c>
-      <c r="E93" s="44"/>
+      <c r="E93" s="43"/>
       <c r="F93" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7144,7 +7188,7 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="39"/>
+      <c r="A94" s="41"/>
       <c r="B94" s="4" t="s">
         <v>63</v>
       </c>
@@ -7152,7 +7196,7 @@
       <c r="D94" s="4">
         <v>1.5</v>
       </c>
-      <c r="E94" s="44"/>
+      <c r="E94" s="43"/>
       <c r="F94" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7162,7 +7206,7 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="39"/>
+      <c r="A95" s="41"/>
       <c r="B95" s="4" t="s">
         <v>64</v>
       </c>
@@ -7170,7 +7214,7 @@
       <c r="D95" s="4">
         <v>2</v>
       </c>
-      <c r="E95" s="44"/>
+      <c r="E95" s="43"/>
       <c r="F95" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7180,22 +7224,22 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="39">
+      <c r="A96" s="41">
         <v>17</v>
       </c>
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43" t="s">
+      <c r="C96" s="42"/>
+      <c r="D96" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="E96" s="43"/>
+      <c r="E96" s="42"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="39"/>
+      <c r="A97" s="41"/>
       <c r="B97" s="4" t="s">
         <v>60</v>
       </c>
@@ -7203,7 +7247,7 @@
       <c r="D97" s="4">
         <v>2</v>
       </c>
-      <c r="E97" s="44">
+      <c r="E97" s="43">
         <f>SUM(F97:F101)</f>
         <v>0</v>
       </c>
@@ -7216,7 +7260,7 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="39"/>
+      <c r="A98" s="41"/>
       <c r="B98" s="4" t="s">
         <v>61</v>
       </c>
@@ -7224,7 +7268,7 @@
       <c r="D98" s="4">
         <v>1.5</v>
       </c>
-      <c r="E98" s="44"/>
+      <c r="E98" s="43"/>
       <c r="F98" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7234,7 +7278,7 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="39"/>
+      <c r="A99" s="41"/>
       <c r="B99" s="4" t="s">
         <v>62</v>
       </c>
@@ -7242,7 +7286,7 @@
       <c r="D99" s="4">
         <v>1</v>
       </c>
-      <c r="E99" s="44"/>
+      <c r="E99" s="43"/>
       <c r="F99" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7252,7 +7296,7 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="39"/>
+      <c r="A100" s="41"/>
       <c r="B100" s="4" t="s">
         <v>63</v>
       </c>
@@ -7260,7 +7304,7 @@
       <c r="D100" s="4">
         <v>0.5</v>
       </c>
-      <c r="E100" s="44"/>
+      <c r="E100" s="43"/>
       <c r="F100" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7270,7 +7314,7 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="39"/>
+      <c r="A101" s="41"/>
       <c r="B101" s="4" t="s">
         <v>64</v>
       </c>
@@ -7278,7 +7322,7 @@
       <c r="D101" s="4">
         <v>0</v>
       </c>
-      <c r="E101" s="44"/>
+      <c r="E101" s="43"/>
       <c r="F101" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7288,22 +7332,22 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="39">
+      <c r="A102" s="41">
         <v>18</v>
       </c>
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43" t="s">
+      <c r="C102" s="42"/>
+      <c r="D102" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="43"/>
+      <c r="E102" s="42"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="39"/>
+      <c r="A103" s="41"/>
       <c r="B103" s="4" t="s">
         <v>24</v>
       </c>
@@ -7311,7 +7355,7 @@
       <c r="D103" s="4">
         <v>2</v>
       </c>
-      <c r="E103" s="44">
+      <c r="E103" s="43">
         <f>SUM(F103:F105)</f>
         <v>0</v>
       </c>
@@ -7324,7 +7368,7 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="39"/>
+      <c r="A104" s="41"/>
       <c r="B104" s="4" t="s">
         <v>22</v>
       </c>
@@ -7332,7 +7376,7 @@
       <c r="D104" s="4">
         <v>1</v>
       </c>
-      <c r="E104" s="44"/>
+      <c r="E104" s="43"/>
       <c r="F104" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7342,7 +7386,7 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="39"/>
+      <c r="A105" s="41"/>
       <c r="B105" s="4" t="s">
         <v>21</v>
       </c>
@@ -7350,7 +7394,7 @@
       <c r="D105" s="4">
         <v>0</v>
       </c>
-      <c r="E105" s="44"/>
+      <c r="E105" s="43"/>
       <c r="F105" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7360,20 +7404,20 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="39">
+      <c r="A106" s="41">
         <v>19</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="39"/>
+      <c r="A107" s="41"/>
       <c r="B107" s="4" t="s">
         <v>48</v>
       </c>
@@ -7381,7 +7425,7 @@
       <c r="D107" s="4">
         <v>2</v>
       </c>
-      <c r="E107" s="44">
+      <c r="E107" s="43">
         <f>SUM(F107:F111)</f>
         <v>0</v>
       </c>
@@ -7394,7 +7438,7 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="39"/>
+      <c r="A108" s="41"/>
       <c r="B108" s="4" t="s">
         <v>69</v>
       </c>
@@ -7402,7 +7446,7 @@
       <c r="D108" s="4">
         <v>1.5</v>
       </c>
-      <c r="E108" s="44"/>
+      <c r="E108" s="43"/>
       <c r="F108" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7412,7 +7456,7 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="39"/>
+      <c r="A109" s="41"/>
       <c r="B109" s="4" t="s">
         <v>68</v>
       </c>
@@ -7420,7 +7464,7 @@
       <c r="D109" s="4">
         <v>1</v>
       </c>
-      <c r="E109" s="44"/>
+      <c r="E109" s="43"/>
       <c r="F109" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7430,7 +7474,7 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="39"/>
+      <c r="A110" s="41"/>
       <c r="B110" s="4" t="s">
         <v>65</v>
       </c>
@@ -7438,7 +7482,7 @@
       <c r="D110" s="4">
         <v>0.5</v>
       </c>
-      <c r="E110" s="44"/>
+      <c r="E110" s="43"/>
       <c r="F110" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7448,7 +7492,7 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="39"/>
+      <c r="A111" s="41"/>
       <c r="B111" s="4" t="s">
         <v>66</v>
       </c>
@@ -7456,7 +7500,7 @@
       <c r="D111" s="4">
         <v>0</v>
       </c>
-      <c r="E111" s="44"/>
+      <c r="E111" s="43"/>
       <c r="F111" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7466,20 +7510,20 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="39">
+      <c r="A112" s="41">
         <v>20</v>
       </c>
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="39"/>
+      <c r="A113" s="41"/>
       <c r="B113" s="4" t="s">
         <v>98</v>
       </c>
@@ -7488,7 +7532,7 @@
         <f>IF(G113=TRUE,B113, " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E113" s="44" t="s">
+      <c r="E113" s="43" t="s">
         <v>118</v>
       </c>
       <c r="F113" s="1">
@@ -7500,7 +7544,7 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="39"/>
+      <c r="A114" s="41"/>
       <c r="B114" s="4" t="s">
         <v>123</v>
       </c>
@@ -7509,7 +7553,7 @@
         <f t="shared" ref="D114:D118" si="6">IF(G114=TRUE,B114, " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E114" s="44"/>
+      <c r="E114" s="43"/>
       <c r="F114" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7519,7 +7563,7 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="39"/>
+      <c r="A115" s="41"/>
       <c r="B115" s="4" t="s">
         <v>108</v>
       </c>
@@ -7528,7 +7572,7 @@
         <f>IF(G115=TRUE,B115, " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E115" s="44"/>
+      <c r="E115" s="43"/>
       <c r="F115" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7538,7 +7582,7 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="39"/>
+      <c r="A116" s="41"/>
       <c r="B116" s="4" t="s">
         <v>109</v>
       </c>
@@ -7547,7 +7591,7 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E116" s="44"/>
+      <c r="E116" s="43"/>
       <c r="F116" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7557,7 +7601,7 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="39"/>
+      <c r="A117" s="41"/>
       <c r="B117" s="4" t="s">
         <v>99</v>
       </c>
@@ -7566,7 +7610,7 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E117" s="44"/>
+      <c r="E117" s="43"/>
       <c r="F117" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7576,7 +7620,7 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="39"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="4" t="s">
         <v>67</v>
       </c>
@@ -7585,7 +7629,7 @@
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E118" s="44"/>
+      <c r="E118" s="43"/>
       <c r="F118" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7595,20 +7639,20 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="39">
+      <c r="A119" s="41">
         <v>21</v>
       </c>
-      <c r="B119" s="43" t="s">
+      <c r="B119" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C119" s="43"/>
-      <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="42"/>
+      <c r="E119" s="42"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="39"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="4" t="s">
         <v>96</v>
       </c>
@@ -7617,7 +7661,7 @@
         <f>IF(G120=TRUE,B120, " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E120" s="44" t="s">
+      <c r="E120" s="43" t="s">
         <v>118</v>
       </c>
       <c r="F120" s="1">
@@ -7629,7 +7673,7 @@
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="39"/>
+      <c r="A121" s="41"/>
       <c r="B121" s="4" t="s">
         <v>95</v>
       </c>
@@ -7638,7 +7682,7 @@
         <f t="shared" ref="D121:D126" si="7">IF(G121=TRUE,B121, " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E121" s="44"/>
+      <c r="E121" s="43"/>
       <c r="F121" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7648,7 +7692,7 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="39"/>
+      <c r="A122" s="41"/>
       <c r="B122" s="4" t="s">
         <v>97</v>
       </c>
@@ -7657,7 +7701,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E122" s="44"/>
+      <c r="E122" s="43"/>
       <c r="F122" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7667,7 +7711,7 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="39"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="4" t="s">
         <v>94</v>
       </c>
@@ -7676,7 +7720,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E123" s="44"/>
+      <c r="E123" s="43"/>
       <c r="F123" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7686,7 +7730,7 @@
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="39"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="4" t="s">
         <v>114</v>
       </c>
@@ -7695,7 +7739,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E124" s="44"/>
+      <c r="E124" s="43"/>
       <c r="F124" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7705,7 +7749,7 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="39"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="4" t="s">
         <v>93</v>
       </c>
@@ -7714,7 +7758,7 @@
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E125" s="44"/>
+      <c r="E125" s="43"/>
       <c r="F125" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -7724,7 +7768,7 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="39"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="4" t="s">
         <v>92</v>
       </c>
@@ -7733,7 +7777,7 @@
         <f t="shared" si="7"/>
         <v>Connected to any company/promoter group/ group of companies listed on any stock exchange</v>
       </c>
-      <c r="E126" s="44"/>
+      <c r="E126" s="43"/>
       <c r="F126" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Connected to any company/promoter group/ group of companies listed on any stock exchange</v>
@@ -7743,127 +7787,63 @@
       </c>
     </row>
     <row r="127" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A127" s="47" t="s">
+      <c r="A127" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B127" s="48"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="48"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="43" t="s">
+      <c r="A128" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43" t="s">
+      <c r="B128" s="42"/>
+      <c r="C128" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
+      <c r="D128" s="42"/>
+      <c r="E128" s="42"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="39" t="s">
+      <c r="A129" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B129" s="39"/>
-      <c r="C129" s="39" t="s">
+      <c r="B129" s="41"/>
+      <c r="C129" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D129" s="39"/>
-      <c r="E129" s="39"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="39" t="s">
+      <c r="A130" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B130" s="39"/>
-      <c r="C130" s="39" t="s">
+      <c r="B130" s="41"/>
+      <c r="C130" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="A119:A126"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="E120:E126"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="A112:A118"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="E113:E118"/>
-    <mergeCell ref="A96:A101"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="A84:A89"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="E91:E95"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="E80:E83"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="E54:E58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="E36:E43"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="E17:E19"/>
@@ -7878,12 +7858,76 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="E11:E15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="E36:E43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="E80:E83"/>
+    <mergeCell ref="A84:A89"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="E91:E95"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="A112:A118"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="E113:E118"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="A119:A126"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="E120:E126"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:E128"/>
   </mergeCells>
   <conditionalFormatting sqref="E11:E15 B11:D11">
     <cfRule type="expression" dxfId="202" priority="98">
@@ -8381,8 +8425,8 @@
   </sheetPr>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" customHeight="1" zeroHeight="1"/>
@@ -8391,95 +8435,95 @@
     <col min="2" max="2" width="51.85546875" style="11" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="36" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="73" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="74" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="31" hidden="1"/>
+    <col min="5" max="5" width="10.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="14" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="15" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="16" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="45" t="str">
-        <f>IF(D7&lt;=150, "LOW",IF(D7&lt;320, "MEDIUM", "HIGH"))</f>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="50" t="str">
+        <f>IF(D7&lt;=150, "LOW",IF(D7&lt;330, "MEDIUM", "HIGH"))</f>
         <v>LOW</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="45">
-        <f>SUM(E11,E17,E22,E27,E31,E37,E42,E47,E52,E56,E62,E71,E76,E81,E86,E92,E103,E108,E114,E120,E123,E128,)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="50">
+        <f>SUM(E11,E17,E22,E27,E31,E37,E42,E47,E52,E56,E62,E66,E71,E76,E81,E86,E92,E98,E103,E108,E114,E120,E123,E128,)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1">
       <c r="A8" s="53" t="s">
@@ -8489,26 +8533,26 @@
       <c r="C8" s="53"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A10" s="39">
+      <c r="A10" s="41">
         <v>1</v>
       </c>
       <c r="B10" s="53" t="s">
@@ -8517,107 +8561,107 @@
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19">
+      <c r="C11" s="26"/>
+      <c r="D11" s="27">
         <v>40</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="54">
         <f>SUM(F11:F15)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="71">
-        <f t="shared" ref="F11:F76" si="0">IF(G11=TRUE,D11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="71" t="b">
+      <c r="F11" s="22" t="b">
+        <f>IF(G11=TRUE,D11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19">
+      <c r="C12" s="26"/>
+      <c r="D12" s="27">
         <v>30</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="71">
+      <c r="E12" s="54"/>
+      <c r="F12" s="22">
+        <f t="shared" ref="F12:F76" si="0">IF(G12=TRUE,D12,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A13" s="41"/>
+      <c r="B13" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="27">
+        <v>20</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="19">
-        <v>20</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="71">
+      <c r="G13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A14" s="41"/>
+      <c r="B14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27">
+        <v>10</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19">
-        <v>10</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="71">
+      <c r="G14" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A15" s="41"/>
+      <c r="B15" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27">
+        <v>0</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19">
-        <v>0</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="71" t="b">
+      <c r="G15" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A16" s="39">
+      <c r="A16" s="41">
         <v>2</v>
       </c>
       <c r="B16" s="53" t="s">
@@ -8626,84 +8670,83 @@
       <c r="C16" s="53"/>
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19">
+      <c r="C17" s="26"/>
+      <c r="D17" s="27">
         <v>10</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="54">
         <f>SUM(F17:F20)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="71" t="b">
+      <c r="G17" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27">
         <v>20</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="71">
+      <c r="E18" s="54"/>
+      <c r="F18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="71" t="b">
+      <c r="G18" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27">
         <v>30</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="71" t="b">
+      <c r="E19" s="54"/>
+      <c r="F19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="72">
-        <v>0</v>
-      </c>
-      <c r="G20" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="34"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="28">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="39">
+      <c r="A21" s="41">
         <v>3</v>
       </c>
       <c r="B21" s="53" t="s">
@@ -8712,86 +8755,86 @@
       <c r="C21" s="53"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="39"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19">
+      <c r="C22" s="26"/>
+      <c r="D22" s="27">
         <v>10</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="54">
         <f>SUM(F22:F25)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="71" t="b">
+      <c r="G22" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="39"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19">
+      <c r="C23" s="26"/>
+      <c r="D23" s="27">
         <v>20</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="71">
+      <c r="E23" s="54"/>
+      <c r="F23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="71" t="b">
+      <c r="G23" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="39"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19">
+      <c r="C24" s="26"/>
+      <c r="D24" s="27">
         <v>30</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="71">
+      <c r="E24" s="54"/>
+      <c r="F24" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="71" t="b">
+      <c r="G24" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="39"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19">
+      <c r="C25" s="26"/>
+      <c r="D25" s="27">
         <v>40</v>
       </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="71">
+      <c r="E25" s="54"/>
+      <c r="F25" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="71" t="b">
+      <c r="G25" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="39">
+      <c r="A26" s="41">
         <v>4</v>
       </c>
       <c r="B26" s="53" t="s">
@@ -8800,68 +8843,68 @@
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="39"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19">
+      <c r="C27" s="26"/>
+      <c r="D27" s="27">
         <v>10</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="54">
         <f>SUM(F27:F29)</f>
         <v>0</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="71" t="b">
+      <c r="G27" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="39"/>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19">
+      <c r="C28" s="26"/>
+      <c r="D28" s="27">
         <v>20</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="71">
+      <c r="E28" s="54"/>
+      <c r="F28" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="71" t="b">
+      <c r="G28" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="39"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19">
+      <c r="C29" s="26"/>
+      <c r="D29" s="27">
         <v>30</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="71">
+      <c r="E29" s="54"/>
+      <c r="F29" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="71" t="b">
+      <c r="G29" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="39">
+      <c r="A30" s="41">
         <v>5</v>
       </c>
       <c r="B30" s="53" t="s">
@@ -8870,86 +8913,86 @@
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
       <c r="E30" s="53"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="39"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19">
+      <c r="C31" s="26"/>
+      <c r="D31" s="27">
         <v>10</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="54">
         <f>SUM(F31:F34)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="71">
+      <c r="F31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="71" t="b">
+      <c r="G31" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="39"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19">
+      <c r="C32" s="26"/>
+      <c r="D32" s="27">
         <v>20</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="71">
+      <c r="E32" s="54"/>
+      <c r="F32" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="71" t="b">
+      <c r="G32" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="39"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19">
+      <c r="C33" s="26"/>
+      <c r="D33" s="27">
         <v>30</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="71">
+      <c r="E33" s="54"/>
+      <c r="F33" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="71" t="b">
+      <c r="G33" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="39"/>
-      <c r="B34" s="17" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19">
+      <c r="C34" s="26"/>
+      <c r="D34" s="27">
         <v>40</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="71">
+      <c r="E34" s="54"/>
+      <c r="F34" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="71" t="b">
+      <c r="G34" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A35" s="39">
+      <c r="A35" s="41">
         <v>6</v>
       </c>
       <c r="B35" s="53" t="s">
@@ -8958,196 +9001,196 @@
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
       <c r="E35" s="53"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="39"/>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="41"/>
+      <c r="B36" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="49" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="71" t="b">
+      <c r="G36" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="39"/>
-      <c r="B37" s="17" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19" t="str">
+      <c r="C37" s="26"/>
+      <c r="D37" s="27" t="str">
         <f>IF(G37=TRUE,B37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="71">
+      <c r="E37" s="54"/>
+      <c r="F37" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G37" s="71" t="b">
+      <c r="G37" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="39"/>
-      <c r="B38" s="17" t="s">
+      <c r="A38" s="41"/>
+      <c r="B38" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19" t="str">
+      <c r="C38" s="26"/>
+      <c r="D38" s="27" t="str">
         <f t="shared" ref="D38:D43" si="1">IF(G38=TRUE,B38," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="71">
+      <c r="E38" s="54"/>
+      <c r="F38" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G38" s="71" t="b">
+      <c r="G38" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A39" s="39"/>
-      <c r="B39" s="17" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18" t="str">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="71">
+      <c r="E39" s="54"/>
+      <c r="F39" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="34"/>
+      <c r="G39" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A40" s="39"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="41"/>
+      <c r="B40" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18" t="str">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="71">
+      <c r="E40" s="54"/>
+      <c r="F40" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="34"/>
+      <c r="G40" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="39"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="41"/>
+      <c r="B41" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="71">
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G41" s="71" t="b">
+      <c r="G41" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="39"/>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="41"/>
+      <c r="B42" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="19" t="str">
+      <c r="C42" s="26"/>
+      <c r="D42" s="27" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="71">
+      <c r="E42" s="54"/>
+      <c r="F42" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="71" t="b">
+      <c r="G42" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="39"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="41"/>
+      <c r="B43" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19" t="str">
+      <c r="C43" s="26"/>
+      <c r="D43" s="27" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="71">
+      <c r="E43" s="54"/>
+      <c r="F43" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="71" t="b">
+      <c r="G43" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="39"/>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="41"/>
+      <c r="B44" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="19" t="str">
+      <c r="C44" s="26"/>
+      <c r="D44" s="27" t="str">
         <f>IF(G44=TRUE,B44," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="71">
+      <c r="E44" s="54"/>
+      <c r="F44" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="71" t="b">
+      <c r="G44" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="41"/>
+      <c r="B45" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19" t="str">
+      <c r="C45" s="26"/>
+      <c r="D45" s="27" t="str">
         <f>IF(G45=TRUE,B45," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71" t="b">
+      <c r="E45" s="54"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A46" s="39">
+      <c r="A46" s="41">
         <v>7</v>
       </c>
       <c r="B46" s="53" t="s">
@@ -9156,86 +9199,86 @@
       <c r="C46" s="53"/>
       <c r="D46" s="53"/>
       <c r="E46" s="53"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="39"/>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="41"/>
+      <c r="B47" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19">
+      <c r="C47" s="26"/>
+      <c r="D47" s="27">
         <v>10</v>
       </c>
-      <c r="E47" s="49">
+      <c r="E47" s="54">
         <f>SUM(F47:F50)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="71">
+      <c r="F47" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G47" s="71" t="b">
+      <c r="G47" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="39"/>
-      <c r="B48" s="17" t="s">
+      <c r="A48" s="41"/>
+      <c r="B48" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="19">
+      <c r="C48" s="26"/>
+      <c r="D48" s="27">
         <v>20</v>
       </c>
-      <c r="E48" s="49"/>
-      <c r="F48" s="71">
+      <c r="E48" s="54"/>
+      <c r="F48" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="71" t="b">
+      <c r="G48" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75">
-      <c r="A49" s="39"/>
-      <c r="B49" s="17" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19">
+      <c r="C49" s="26"/>
+      <c r="D49" s="27">
         <v>30</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="71">
+      <c r="E49" s="54"/>
+      <c r="F49" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G49" s="71" t="b">
+      <c r="G49" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75">
-      <c r="A50" s="39"/>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="41"/>
+      <c r="B50" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19">
+      <c r="C50" s="26"/>
+      <c r="D50" s="27">
         <v>40</v>
       </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="71">
+      <c r="E50" s="54"/>
+      <c r="F50" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G50" s="71" t="b">
+      <c r="G50" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75">
-      <c r="A51" s="39">
+      <c r="A51" s="41">
         <v>8</v>
       </c>
       <c r="B51" s="53" t="s">
@@ -9244,68 +9287,68 @@
       <c r="C51" s="53"/>
       <c r="D51" s="53"/>
       <c r="E51" s="53"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7" ht="15.75">
-      <c r="A52" s="39"/>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19">
+      <c r="C52" s="26"/>
+      <c r="D52" s="27">
         <v>10</v>
       </c>
-      <c r="E52" s="49">
+      <c r="E52" s="54">
         <f>SUM(F52:F54)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="71">
+      <c r="F52" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G52" s="71" t="b">
+      <c r="G52" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75">
-      <c r="A53" s="39"/>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="41"/>
+      <c r="B53" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19">
+      <c r="C53" s="26"/>
+      <c r="D53" s="27">
         <v>20</v>
       </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="71">
+      <c r="E53" s="54"/>
+      <c r="F53" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G53" s="71" t="b">
+      <c r="G53" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75">
-      <c r="A54" s="39"/>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="41"/>
+      <c r="B54" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19">
+      <c r="C54" s="26"/>
+      <c r="D54" s="27">
         <v>30</v>
       </c>
-      <c r="E54" s="49"/>
-      <c r="F54" s="71">
+      <c r="E54" s="54"/>
+      <c r="F54" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G54" s="71" t="b">
+      <c r="G54" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75">
-      <c r="A55" s="39">
+      <c r="A55" s="41">
         <v>9</v>
       </c>
       <c r="B55" s="53" t="s">
@@ -9316,109 +9359,109 @@
         <v>90</v>
       </c>
       <c r="E55" s="53"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
     </row>
     <row r="56" spans="1:7" ht="15.75">
-      <c r="A56" s="39"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="41"/>
+      <c r="B56" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19" t="str">
+      <c r="C56" s="26"/>
+      <c r="D56" s="27" t="str">
         <f>IF(G56=TRUE,B56," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E56" s="49">
+      <c r="E56" s="54">
         <f>SUM(F56:F60)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="71">
+      <c r="F56" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="71" t="b">
+      <c r="G56" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75">
-      <c r="A57" s="39"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="41"/>
+      <c r="B57" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="19" t="str">
+      <c r="C57" s="26"/>
+      <c r="D57" s="27" t="str">
         <f>IF(G57=TRUE,B57," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E57" s="49"/>
-      <c r="F57" s="71">
+      <c r="E57" s="54"/>
+      <c r="F57" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G57" s="71" t="b">
+      <c r="G57" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75">
-      <c r="A58" s="39"/>
-      <c r="B58" s="17" t="s">
+      <c r="A58" s="41"/>
+      <c r="B58" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19" t="str">
+      <c r="C58" s="26"/>
+      <c r="D58" s="27" t="str">
         <f>IF(G58=TRUE,B58," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E58" s="49"/>
-      <c r="F58" s="71">
+      <c r="E58" s="54"/>
+      <c r="F58" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G58" s="71" t="b">
+      <c r="G58" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75">
-      <c r="A59" s="39"/>
-      <c r="B59" s="17" t="s">
+      <c r="A59" s="41"/>
+      <c r="B59" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="19" t="str">
+      <c r="C59" s="26"/>
+      <c r="D59" s="27" t="str">
         <f>IF(G59=TRUE,B59," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="71">
+      <c r="E59" s="54"/>
+      <c r="F59" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="71" t="b">
+      <c r="G59" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75">
-      <c r="A60" s="39"/>
-      <c r="B60" s="17" t="s">
+      <c r="A60" s="41"/>
+      <c r="B60" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19" t="str">
+      <c r="C60" s="26"/>
+      <c r="D60" s="27" t="str">
         <f>IF(G60=TRUE,B60," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E60" s="49"/>
-      <c r="F60" s="71">
+      <c r="E60" s="54"/>
+      <c r="F60" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="71" t="b">
+      <c r="G60" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75">
-      <c r="A61" s="39">
+      <c r="A61" s="41">
         <v>10</v>
       </c>
       <c r="B61" s="53" t="s">
@@ -9427,68 +9470,68 @@
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
       <c r="E61" s="53"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="1:7" ht="15.75">
-      <c r="A62" s="39"/>
-      <c r="B62" s="17" t="s">
+      <c r="A62" s="41"/>
+      <c r="B62" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19">
+      <c r="C62" s="26"/>
+      <c r="D62" s="27">
         <v>30</v>
       </c>
-      <c r="E62" s="49">
+      <c r="E62" s="54">
         <f>SUM(F62:F64)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="71">
+      <c r="F62" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="71" t="b">
+      <c r="G62" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75">
-      <c r="A63" s="39"/>
-      <c r="B63" s="17" t="s">
+      <c r="A63" s="41"/>
+      <c r="B63" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19">
+      <c r="C63" s="26"/>
+      <c r="D63" s="27">
         <v>20</v>
       </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="71">
+      <c r="E63" s="54"/>
+      <c r="F63" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G63" s="71" t="b">
+      <c r="G63" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75">
-      <c r="A64" s="39"/>
-      <c r="B64" s="17" t="s">
+      <c r="A64" s="41"/>
+      <c r="B64" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="19">
+      <c r="C64" s="26"/>
+      <c r="D64" s="27">
         <v>10</v>
       </c>
-      <c r="E64" s="49"/>
-      <c r="F64" s="71">
+      <c r="E64" s="54"/>
+      <c r="F64" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G64" s="71" t="b">
+      <c r="G64" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75">
-      <c r="A65" s="39">
+      <c r="A65" s="41">
         <v>11</v>
       </c>
       <c r="B65" s="53" t="s">
@@ -9497,86 +9540,86 @@
       <c r="C65" s="53"/>
       <c r="D65" s="53"/>
       <c r="E65" s="53"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:7" ht="15.75">
-      <c r="A66" s="39"/>
-      <c r="B66" s="17" t="s">
+      <c r="A66" s="41"/>
+      <c r="B66" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="19">
+      <c r="C66" s="26"/>
+      <c r="D66" s="27">
         <v>10</v>
       </c>
-      <c r="E66" s="49">
+      <c r="E66" s="54">
         <f>SUM(F66:F69)</f>
         <v>0</v>
       </c>
-      <c r="F66" s="71">
+      <c r="F66" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G66" s="71" t="b">
+      <c r="G66" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75">
-      <c r="A67" s="39"/>
-      <c r="B67" s="17" t="s">
+      <c r="A67" s="41"/>
+      <c r="B67" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="19">
+      <c r="C67" s="26"/>
+      <c r="D67" s="27">
         <v>20</v>
       </c>
-      <c r="E67" s="49"/>
-      <c r="F67" s="71">
+      <c r="E67" s="54"/>
+      <c r="F67" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G67" s="71" t="b">
+      <c r="G67" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75">
-      <c r="A68" s="39"/>
-      <c r="B68" s="17" t="s">
+      <c r="A68" s="41"/>
+      <c r="B68" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="19">
+      <c r="C68" s="26"/>
+      <c r="D68" s="27">
         <v>30</v>
       </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="71">
+      <c r="E68" s="54"/>
+      <c r="F68" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G68" s="71" t="b">
+      <c r="G68" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75">
-      <c r="A69" s="39"/>
-      <c r="B69" s="17" t="s">
+      <c r="A69" s="41"/>
+      <c r="B69" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="19">
+      <c r="C69" s="26"/>
+      <c r="D69" s="27">
         <v>40</v>
       </c>
-      <c r="E69" s="49"/>
-      <c r="F69" s="71">
+      <c r="E69" s="54"/>
+      <c r="F69" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G69" s="71" t="b">
+      <c r="G69" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75">
-      <c r="A70" s="39">
+      <c r="A70" s="41">
         <v>12</v>
       </c>
       <c r="B70" s="53" t="s">
@@ -9587,89 +9630,89 @@
         <v>11</v>
       </c>
       <c r="E70" s="53"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" ht="15.75">
-      <c r="A71" s="39"/>
-      <c r="B71" s="17" t="s">
+      <c r="A71" s="41"/>
+      <c r="B71" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="19" t="str">
+      <c r="C71" s="26"/>
+      <c r="D71" s="27" t="str">
         <f>IF(G71=TRUE,B71," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E71" s="49" t="s">
+      <c r="E71" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="F71" s="71">
+      <c r="F71" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G71" s="71" t="b">
+      <c r="G71" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75">
-      <c r="A72" s="39"/>
-      <c r="B72" s="17" t="s">
+      <c r="A72" s="41"/>
+      <c r="B72" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="19" t="str">
+      <c r="C72" s="26"/>
+      <c r="D72" s="27" t="str">
         <f t="shared" ref="D72:D74" si="2">IF(G72=TRUE,B72," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E72" s="49"/>
-      <c r="F72" s="71">
+      <c r="E72" s="54"/>
+      <c r="F72" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G72" s="71" t="b">
+      <c r="G72" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75">
-      <c r="A73" s="39"/>
-      <c r="B73" s="17" t="s">
+      <c r="A73" s="41"/>
+      <c r="B73" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="19" t="str">
+      <c r="C73" s="26"/>
+      <c r="D73" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E73" s="49"/>
-      <c r="F73" s="71">
+      <c r="E73" s="54"/>
+      <c r="F73" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G73" s="71" t="b">
+      <c r="G73" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75">
-      <c r="A74" s="39"/>
-      <c r="B74" s="17" t="s">
+      <c r="A74" s="41"/>
+      <c r="B74" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19" t="str">
+      <c r="C74" s="26"/>
+      <c r="D74" s="27" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E74" s="49"/>
-      <c r="F74" s="71">
+      <c r="E74" s="54"/>
+      <c r="F74" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G74" s="71" t="b">
+      <c r="G74" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75">
-      <c r="A75" s="39">
+      <c r="A75" s="41">
         <v>13</v>
       </c>
       <c r="B75" s="53" t="s">
@@ -9680,89 +9723,89 @@
         <v>115</v>
       </c>
       <c r="E75" s="53"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
     </row>
     <row r="76" spans="1:7" ht="15.75">
-      <c r="A76" s="39"/>
-      <c r="B76" s="17" t="s">
+      <c r="A76" s="41"/>
+      <c r="B76" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19" t="str">
+      <c r="C76" s="26"/>
+      <c r="D76" s="27" t="str">
         <f>IF(G76=TRUE,B76," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E76" s="49" t="s">
+      <c r="E76" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="F76" s="71">
+      <c r="F76" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G76" s="71" t="b">
+      <c r="G76" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75">
-      <c r="A77" s="39"/>
-      <c r="B77" s="17" t="s">
+      <c r="A77" s="41"/>
+      <c r="B77" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="19" t="str">
+      <c r="C77" s="26"/>
+      <c r="D77" s="27" t="str">
         <f t="shared" ref="D77:D79" si="3">IF(G77=TRUE,B77," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E77" s="49"/>
-      <c r="F77" s="71">
+      <c r="E77" s="54"/>
+      <c r="F77" s="22">
         <f t="shared" ref="F77:F139" si="4">IF(G77=TRUE,D77,0)</f>
         <v>0</v>
       </c>
-      <c r="G77" s="71" t="b">
+      <c r="G77" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75">
-      <c r="A78" s="39"/>
-      <c r="B78" s="17" t="s">
+      <c r="A78" s="41"/>
+      <c r="B78" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19" t="str">
+      <c r="C78" s="26"/>
+      <c r="D78" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E78" s="49"/>
-      <c r="F78" s="71">
+      <c r="E78" s="54"/>
+      <c r="F78" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G78" s="71" t="b">
+      <c r="G78" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75">
-      <c r="A79" s="39"/>
-      <c r="B79" s="17" t="s">
+      <c r="A79" s="41"/>
+      <c r="B79" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="19" t="str">
+      <c r="C79" s="26"/>
+      <c r="D79" s="27" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E79" s="49"/>
-      <c r="F79" s="71">
+      <c r="E79" s="54"/>
+      <c r="F79" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G79" s="71" t="b">
+      <c r="G79" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75">
-      <c r="A80" s="39">
+      <c r="A80" s="41">
         <v>14</v>
       </c>
       <c r="B80" s="53" t="s">
@@ -9772,90 +9815,90 @@
       <c r="D80" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="E80" s="39"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
     </row>
     <row r="81" spans="1:8" ht="15.75">
-      <c r="A81" s="39"/>
-      <c r="B81" s="17" t="s">
+      <c r="A81" s="41"/>
+      <c r="B81" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="19" t="str">
+      <c r="C81" s="26"/>
+      <c r="D81" s="27" t="str">
         <f>IF(G81=TRUE,B81," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E81" s="49" t="s">
+      <c r="E81" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="F81" s="71">
+      <c r="F81" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G81" s="71" t="b">
+      <c r="G81" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="39"/>
-      <c r="B82" s="17" t="s">
+      <c r="A82" s="41"/>
+      <c r="B82" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19" t="str">
+      <c r="C82" s="26"/>
+      <c r="D82" s="27" t="str">
         <f t="shared" ref="D82:D84" si="5">IF(G82=TRUE,B82," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E82" s="49"/>
-      <c r="F82" s="71">
+      <c r="E82" s="54"/>
+      <c r="F82" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G82" s="71" t="b">
+      <c r="G82" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75">
-      <c r="A83" s="39"/>
-      <c r="B83" s="17" t="s">
+      <c r="A83" s="41"/>
+      <c r="B83" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="19" t="str">
+      <c r="C83" s="26"/>
+      <c r="D83" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E83" s="49"/>
-      <c r="F83" s="71">
+      <c r="E83" s="54"/>
+      <c r="F83" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G83" s="71" t="b">
+      <c r="G83" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75">
-      <c r="A84" s="39"/>
-      <c r="B84" s="17" t="s">
+      <c r="A84" s="41"/>
+      <c r="B84" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19" t="str">
+      <c r="C84" s="26"/>
+      <c r="D84" s="27" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E84" s="49"/>
-      <c r="F84" s="71">
+      <c r="E84" s="54"/>
+      <c r="F84" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G84" s="71" t="b">
+      <c r="G84" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75">
-      <c r="A85" s="39">
+      <c r="A85" s="41">
         <v>15</v>
       </c>
       <c r="B85" s="53" t="s">
@@ -9863,668 +9906,649 @@
       </c>
       <c r="C85" s="53"/>
       <c r="D85" s="53"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
     </row>
     <row r="86" spans="1:8" ht="15.75">
-      <c r="A86" s="39"/>
-      <c r="B86" s="17" t="s">
+      <c r="A86" s="41"/>
+      <c r="B86" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19">
+      <c r="C86" s="26"/>
+      <c r="D86" s="27">
         <v>40</v>
       </c>
-      <c r="E86" s="49">
+      <c r="E86" s="54">
         <f>SUM(F86:F90)</f>
         <v>0</v>
       </c>
-      <c r="F86" s="71">
+      <c r="F86" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G86" s="71" t="b">
+      <c r="G86" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75">
-      <c r="A87" s="39"/>
-      <c r="B87" s="17" t="s">
+      <c r="A87" s="41"/>
+      <c r="B87" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="19">
+      <c r="C87" s="26"/>
+      <c r="D87" s="27">
         <v>30</v>
       </c>
-      <c r="E87" s="49"/>
-      <c r="F87" s="71">
+      <c r="E87" s="54"/>
+      <c r="F87" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G87" s="71" t="b">
+      <c r="G87" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75">
-      <c r="A88" s="39"/>
-      <c r="B88" s="17" t="s">
+      <c r="A88" s="41"/>
+      <c r="B88" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="19">
+      <c r="C88" s="26"/>
+      <c r="D88" s="27">
         <v>20</v>
       </c>
-      <c r="E88" s="49"/>
-      <c r="F88" s="71">
+      <c r="E88" s="54"/>
+      <c r="F88" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G88" s="71" t="b">
+      <c r="G88" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75">
-      <c r="A89" s="39"/>
-      <c r="B89" s="17" t="s">
+      <c r="A89" s="41"/>
+      <c r="B89" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="19">
+      <c r="C89" s="26"/>
+      <c r="D89" s="27">
         <v>10</v>
       </c>
-      <c r="E89" s="49"/>
-      <c r="F89" s="71">
+      <c r="E89" s="54"/>
+      <c r="F89" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G89" s="71" t="b">
+      <c r="G89" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75">
-      <c r="A90" s="39"/>
-      <c r="B90" s="17" t="s">
+      <c r="A90" s="41"/>
+      <c r="B90" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="19">
-        <v>0</v>
-      </c>
-      <c r="E90" s="49"/>
-      <c r="F90" s="71">
+      <c r="C90" s="26"/>
+      <c r="D90" s="27">
+        <v>0</v>
+      </c>
+      <c r="E90" s="54"/>
+      <c r="F90" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G90" s="71" t="b">
+      <c r="G90" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A91" s="61">
+      <c r="A91" s="65">
         <v>16</v>
       </c>
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="34"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:8" s="10" customFormat="1" ht="24">
-      <c r="A92" s="62"/>
-      <c r="B92" s="23" t="s">
+      <c r="A92" s="66"/>
+      <c r="B92" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="19">
+      <c r="C92" s="26"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="68">
+        <f>SUM(F92:F95)</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="28">
+        <f>IF(G92=TRUE,D92,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" spans="1:8" s="10" customFormat="1" ht="24">
+      <c r="A93" s="66"/>
+      <c r="B93" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="69"/>
+      <c r="F93" s="28">
+        <f>IF(G93=TRUE,D93,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="1:8" s="10" customFormat="1" ht="24">
+      <c r="A94" s="66"/>
+      <c r="B94" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="26"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="28">
+        <f>IF(G94=TRUE,D94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A95" s="67"/>
+      <c r="B95" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="26"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="28">
+        <f>IF(G95=TRUE,D95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A96" s="65">
+        <v>17</v>
+      </c>
+      <c r="B96" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A97" s="66"/>
+      <c r="B97" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="26"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="68">
+        <f>SUM(F97:F100)</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="28">
+        <f>IF(G97=TRUE,D97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="1:8" s="10" customFormat="1" ht="24">
+      <c r="A98" s="66"/>
+      <c r="B98" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="26"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="28">
+        <f>IF(G98=TRUE,D98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A99" s="66"/>
+      <c r="B99" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="28">
+        <f>IF(G99=TRUE,D99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="17"/>
+    </row>
+    <row r="100" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A100" s="67"/>
+      <c r="B100" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="26"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="28">
+        <f>IF(G100=TRUE,D100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A101" s="65">
+        <v>18</v>
+      </c>
+      <c r="B101" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A102" s="66"/>
+      <c r="B102" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="63"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A103" s="66"/>
+      <c r="B103" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="27">
+        <v>40</v>
+      </c>
+      <c r="E103" s="54">
+        <f>SUM(F103:F106)</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="28">
+        <f>IF(G103=TRUE,D103,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="17"/>
+    </row>
+    <row r="104" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A104" s="66"/>
+      <c r="B104" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="C104" s="26"/>
+      <c r="D104" s="27">
         <v>30</v>
       </c>
-      <c r="E92" s="64">
-        <f>SUM(F92:F95)</f>
-        <v>0</v>
-      </c>
-      <c r="F92" s="72">
-        <f>IF(G92=TRUE,D92,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="34"/>
-    </row>
-    <row r="93" spans="1:8" s="10" customFormat="1" ht="24">
-      <c r="A93" s="62"/>
-      <c r="B93" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="19">
+      <c r="E104" s="54"/>
+      <c r="F104" s="28">
+        <f>IF(G104=TRUE,D104,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="17"/>
+    </row>
+    <row r="105" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A105" s="66"/>
+      <c r="B105" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="26"/>
+      <c r="D105" s="27">
         <v>20</v>
       </c>
-      <c r="E93" s="65"/>
-      <c r="F93" s="72">
-        <f>IF(G93=TRUE,D93,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" s="34"/>
-    </row>
-    <row r="94" spans="1:8" s="10" customFormat="1" ht="24">
-      <c r="A94" s="62"/>
-      <c r="B94" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="19">
+      <c r="E105" s="54"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="1:8" s="10" customFormat="1" ht="15.75">
+      <c r="A106" s="67"/>
+      <c r="B106" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106" s="26"/>
+      <c r="D106" s="27">
         <v>10</v>
       </c>
-      <c r="E94" s="65"/>
-      <c r="F94" s="72">
-        <f>IF(G94=TRUE,D94,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" s="34"/>
-    </row>
-    <row r="95" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A95" s="63"/>
-      <c r="B95" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="C95" s="18"/>
-      <c r="D95" s="19">
-        <v>0</v>
-      </c>
-      <c r="E95" s="66"/>
-      <c r="F95" s="72">
-        <f>IF(G95=TRUE,D95,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" s="34"/>
-    </row>
-    <row r="96" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A96" s="61">
-        <v>17</v>
-      </c>
-      <c r="B96" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="C96" s="57"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="34"/>
-    </row>
-    <row r="97" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A97" s="62"/>
-      <c r="B97" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="19">
-        <v>0</v>
-      </c>
-      <c r="E97" s="64">
-        <f>SUM(F97:F100)</f>
-        <v>0</v>
-      </c>
-      <c r="F97" s="72">
-        <f>IF(G97=TRUE,D97,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G97" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" s="34"/>
-    </row>
-    <row r="98" spans="1:8" s="10" customFormat="1" ht="24">
-      <c r="A98" s="62"/>
-      <c r="B98" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="19">
+      <c r="E106" s="54"/>
+      <c r="F106" s="28">
+        <f>IF(G106=TRUE,D106,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A107" s="41">
+        <v>19</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107" s="37"/>
+      <c r="D107" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E107" s="60"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.75">
+      <c r="A108" s="41"/>
+      <c r="B108" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="26"/>
+      <c r="D108" s="27">
+        <v>0</v>
+      </c>
+      <c r="E108" s="54">
+        <f>SUM(F108:F112)</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75">
+      <c r="A109" s="41"/>
+      <c r="B109" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="27">
         <v>10</v>
       </c>
-      <c r="E98" s="65"/>
-      <c r="F98" s="72">
-        <f>IF(G98=TRUE,D98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" s="34"/>
-    </row>
-    <row r="99" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A99" s="62"/>
-      <c r="B99" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="19">
+      <c r="E109" s="54"/>
+      <c r="F109" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75">
+      <c r="A110" s="41"/>
+      <c r="B110" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" s="26"/>
+      <c r="D110" s="27">
         <v>20</v>
       </c>
-      <c r="E99" s="65"/>
-      <c r="F99" s="72">
-        <f>IF(G99=TRUE,D99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" s="34"/>
-    </row>
-    <row r="100" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A100" s="63"/>
-      <c r="B100" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="18"/>
-      <c r="D100" s="19">
+      <c r="E110" s="54"/>
+      <c r="F110" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75">
+      <c r="A111" s="41"/>
+      <c r="B111" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" s="26"/>
+      <c r="D111" s="27">
         <v>30</v>
       </c>
-      <c r="E100" s="66"/>
-      <c r="F100" s="72">
-        <f>IF(G100=TRUE,D100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G100" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" s="34"/>
-    </row>
-    <row r="101" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A101" s="61">
-        <v>18</v>
-      </c>
-      <c r="B101" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="34"/>
-    </row>
-    <row r="102" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A102" s="62"/>
-      <c r="B102" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="C102" s="59"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="34"/>
-    </row>
-    <row r="103" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A103" s="62"/>
-      <c r="B103" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="C103" s="18"/>
-      <c r="D103" s="19">
+      <c r="E111" s="54"/>
+      <c r="F111" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75">
+      <c r="A112" s="41"/>
+      <c r="B112" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="26"/>
+      <c r="D112" s="27">
         <v>40</v>
       </c>
-      <c r="E103" s="49">
-        <f>SUM(F103:F106)</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="72">
-        <f>IF(G103=TRUE,D103,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G103" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" s="34"/>
-    </row>
-    <row r="104" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A104" s="62"/>
-      <c r="B104" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104" s="18"/>
-      <c r="D104" s="19">
+      <c r="E112" s="54"/>
+      <c r="F112" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A113" s="41">
+        <v>20</v>
+      </c>
+      <c r="B113" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="20"/>
+      <c r="D113" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" s="60"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.75">
+      <c r="A114" s="41"/>
+      <c r="B114" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="26"/>
+      <c r="D114" s="27">
+        <v>40</v>
+      </c>
+      <c r="E114" s="54">
+        <f>SUM(F114:F118)</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A115" s="41"/>
+      <c r="B115" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C115" s="26"/>
+      <c r="D115" s="27">
         <v>30</v>
       </c>
-      <c r="E104" s="49"/>
-      <c r="F104" s="72">
-        <f>IF(G104=TRUE,D104,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G104" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104" s="34"/>
-    </row>
-    <row r="105" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A105" s="62"/>
-      <c r="B105" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" s="18"/>
-      <c r="D105" s="19">
+      <c r="E115" s="54"/>
+      <c r="F115" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75">
+      <c r="A116" s="41"/>
+      <c r="B116" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="26"/>
+      <c r="D116" s="27">
         <v>20</v>
       </c>
-      <c r="E105" s="49"/>
-      <c r="F105" s="72">
-        <f>IF(G105=TRUE,D105,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G105" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" s="34"/>
-    </row>
-    <row r="106" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A106" s="63"/>
-      <c r="B106" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" s="18"/>
-      <c r="D106" s="19">
+      <c r="E116" s="54"/>
+      <c r="F116" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75">
+      <c r="A117" s="41"/>
+      <c r="B117" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" s="26"/>
+      <c r="D117" s="27">
         <v>10</v>
       </c>
-      <c r="E106" s="49"/>
-      <c r="F106" s="72">
-        <f>IF(G106=TRUE,D106,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G106" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" s="34"/>
-    </row>
-    <row r="107" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A107" s="39">
-        <v>19</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C107" s="27"/>
-      <c r="D107" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="E107" s="56"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.75">
-      <c r="A108" s="39"/>
-      <c r="B108" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="19">
-        <v>0</v>
-      </c>
-      <c r="E108" s="49">
-        <f>SUM(F108:F112)</f>
-        <v>0</v>
-      </c>
-      <c r="F108" s="71">
+      <c r="E117" s="54"/>
+      <c r="F117" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G108" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75">
-      <c r="A109" s="39"/>
-      <c r="B109" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C109" s="18"/>
-      <c r="D109" s="19">
-        <v>10</v>
-      </c>
-      <c r="E109" s="49"/>
-      <c r="F109" s="71">
+      <c r="G117" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75">
+      <c r="A118" s="41"/>
+      <c r="B118" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="26"/>
+      <c r="D118" s="27">
+        <v>0</v>
+      </c>
+      <c r="E118" s="54"/>
+      <c r="F118" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G109" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15.75">
-      <c r="A110" s="39"/>
-      <c r="B110" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="19">
-        <v>20</v>
-      </c>
-      <c r="E110" s="49"/>
-      <c r="F110" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15.75">
-      <c r="A111" s="39"/>
-      <c r="B111" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="19">
-        <v>30</v>
-      </c>
-      <c r="E111" s="49"/>
-      <c r="F111" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15.75">
-      <c r="A112" s="39"/>
-      <c r="B112" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" s="18"/>
-      <c r="D112" s="19">
-        <v>40</v>
-      </c>
-      <c r="E112" s="49"/>
-      <c r="F112" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A113" s="39">
-        <v>20</v>
-      </c>
-      <c r="B113" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="E113" s="56"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-    </row>
-    <row r="114" spans="1:7" ht="15.75">
-      <c r="A114" s="39"/>
-      <c r="B114" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="19">
-        <v>40</v>
-      </c>
-      <c r="E114" s="49">
-        <f>SUM(F114:F118)</f>
-        <v>0</v>
-      </c>
-      <c r="F114" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A115" s="39"/>
-      <c r="B115" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="19">
-        <v>30</v>
-      </c>
-      <c r="E115" s="49"/>
-      <c r="F115" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15.75">
-      <c r="A116" s="39"/>
-      <c r="B116" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C116" s="18"/>
-      <c r="D116" s="19">
-        <v>20</v>
-      </c>
-      <c r="E116" s="49"/>
-      <c r="F116" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15.75">
-      <c r="A117" s="39"/>
-      <c r="B117" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C117" s="18"/>
-      <c r="D117" s="19">
-        <v>10</v>
-      </c>
-      <c r="E117" s="49"/>
-      <c r="F117" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15.75">
-      <c r="A118" s="39"/>
-      <c r="B118" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="18"/>
-      <c r="D118" s="19">
-        <v>0</v>
-      </c>
-      <c r="E118" s="49"/>
-      <c r="F118" s="71">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="71" t="b">
+      <c r="G118" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75">
-      <c r="A119" s="39">
+      <c r="A119" s="41">
         <v>21</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C119" s="15"/>
+      <c r="C119" s="20"/>
       <c r="D119" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E119" s="53"/>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
     </row>
     <row r="120" spans="1:7" ht="15.75">
-      <c r="A120" s="39"/>
-      <c r="B120" s="17" t="s">
+      <c r="A120" s="41"/>
+      <c r="B120" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="19">
+      <c r="C120" s="26"/>
+      <c r="D120" s="27">
         <v>20</v>
       </c>
-      <c r="E120" s="49">
+      <c r="E120" s="54">
         <f>SUM(F120:F121)</f>
         <v>0</v>
       </c>
-      <c r="F120" s="71">
+      <c r="F120" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G120" s="71" t="b">
+      <c r="G120" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75">
-      <c r="A121" s="39"/>
-      <c r="B121" s="17" t="s">
+      <c r="A121" s="41"/>
+      <c r="B121" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C121" s="18"/>
-      <c r="D121" s="19">
+      <c r="C121" s="26"/>
+      <c r="D121" s="27">
         <v>10</v>
       </c>
-      <c r="E121" s="49"/>
-      <c r="F121" s="71">
+      <c r="E121" s="54"/>
+      <c r="F121" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G121" s="71" t="b">
+      <c r="G121" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75">
-      <c r="A122" s="39">
+      <c r="A122" s="41">
         <v>22</v>
       </c>
       <c r="B122" s="53" t="s">
@@ -10533,86 +10557,86 @@
       <c r="C122" s="53"/>
       <c r="D122" s="53"/>
       <c r="E122" s="53"/>
-      <c r="F122" s="71"/>
-      <c r="G122" s="71"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
     </row>
     <row r="123" spans="1:7" ht="15.75">
-      <c r="A123" s="39"/>
-      <c r="B123" s="17" t="s">
+      <c r="A123" s="41"/>
+      <c r="B123" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C123" s="18"/>
-      <c r="D123" s="19">
+      <c r="C123" s="26"/>
+      <c r="D123" s="27">
         <v>40</v>
       </c>
-      <c r="E123" s="49">
+      <c r="E123" s="54">
         <f>SUM(F123:F126)</f>
         <v>0</v>
       </c>
-      <c r="F123" s="71">
+      <c r="F123" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G123" s="71" t="b">
+      <c r="G123" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75">
-      <c r="A124" s="39"/>
-      <c r="B124" s="17" t="s">
+      <c r="A124" s="41"/>
+      <c r="B124" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="19">
+      <c r="C124" s="26"/>
+      <c r="D124" s="27">
         <v>30</v>
       </c>
-      <c r="E124" s="49"/>
-      <c r="F124" s="71">
+      <c r="E124" s="54"/>
+      <c r="F124" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G124" s="71" t="b">
+      <c r="G124" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75">
-      <c r="A125" s="39"/>
-      <c r="B125" s="17" t="s">
+      <c r="A125" s="41"/>
+      <c r="B125" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C125" s="18"/>
-      <c r="D125" s="19">
+      <c r="C125" s="26"/>
+      <c r="D125" s="27">
         <v>20</v>
       </c>
-      <c r="E125" s="49"/>
-      <c r="F125" s="71">
+      <c r="E125" s="54"/>
+      <c r="F125" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G125" s="71" t="b">
+      <c r="G125" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75">
-      <c r="A126" s="39"/>
-      <c r="B126" s="17" t="s">
+      <c r="A126" s="41"/>
+      <c r="B126" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C126" s="18"/>
-      <c r="D126" s="19">
+      <c r="C126" s="26"/>
+      <c r="D126" s="27">
         <v>10</v>
       </c>
-      <c r="E126" s="49"/>
-      <c r="F126" s="71">
+      <c r="E126" s="54"/>
+      <c r="F126" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G126" s="71" t="b">
+      <c r="G126" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75">
-      <c r="A127" s="39">
+      <c r="A127" s="41">
         <v>23</v>
       </c>
       <c r="B127" s="53" t="s">
@@ -10621,268 +10645,268 @@
       <c r="C127" s="53"/>
       <c r="D127" s="53"/>
       <c r="E127" s="53"/>
-      <c r="F127" s="71"/>
-      <c r="G127" s="71"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
     </row>
     <row r="128" spans="1:7" ht="15.75">
-      <c r="A128" s="39"/>
-      <c r="B128" s="22" t="s">
+      <c r="A128" s="41"/>
+      <c r="B128" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="C128" s="18"/>
-      <c r="D128" s="19" t="str">
+      <c r="C128" s="26"/>
+      <c r="D128" s="27" t="str">
         <f t="shared" ref="D128:D139" si="6">IF(G128=TRUE,B128, " ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E128" s="49" t="s">
+      <c r="E128" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="F128" s="71">
+      <c r="F128" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G128" s="71" t="b">
+      <c r="G128" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A129" s="39"/>
-      <c r="B129" s="22" t="s">
+      <c r="A129" s="41"/>
+      <c r="B129" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C129" s="18"/>
-      <c r="D129" s="22" t="str">
+      <c r="C129" s="26"/>
+      <c r="D129" s="32" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E129" s="49"/>
-      <c r="F129" s="71">
+      <c r="E129" s="54"/>
+      <c r="F129" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G129" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H129" s="34"/>
+      <c r="G129" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="17"/>
     </row>
     <row r="130" spans="1:8" ht="15.75">
-      <c r="A130" s="39"/>
-      <c r="B130" s="17" t="s">
+      <c r="A130" s="41"/>
+      <c r="B130" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="C130" s="18"/>
-      <c r="D130" s="19" t="str">
+      <c r="C130" s="26"/>
+      <c r="D130" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E130" s="49"/>
-      <c r="F130" s="71">
+      <c r="E130" s="54"/>
+      <c r="F130" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G130" s="71" t="b">
+      <c r="G130" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A131" s="39"/>
-      <c r="B131" s="17" t="s">
+      <c r="A131" s="41"/>
+      <c r="B131" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18" t="str">
+      <c r="C131" s="26"/>
+      <c r="D131" s="26" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E131" s="49"/>
-      <c r="F131" s="71">
+      <c r="E131" s="54"/>
+      <c r="F131" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G131" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" s="34"/>
+      <c r="G131" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" s="17"/>
     </row>
     <row r="132" spans="1:8" ht="15.75">
-      <c r="A132" s="39"/>
-      <c r="B132" s="17" t="s">
+      <c r="A132" s="41"/>
+      <c r="B132" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C132" s="18"/>
-      <c r="D132" s="19" t="str">
+      <c r="C132" s="26"/>
+      <c r="D132" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E132" s="49"/>
-      <c r="F132" s="71">
+      <c r="E132" s="54"/>
+      <c r="F132" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G132" s="71" t="b">
+      <c r="G132" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A133" s="39"/>
-      <c r="B133" s="17" t="s">
+      <c r="A133" s="41"/>
+      <c r="B133" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18" t="str">
+      <c r="C133" s="26"/>
+      <c r="D133" s="26" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E133" s="49"/>
-      <c r="F133" s="71">
+      <c r="E133" s="54"/>
+      <c r="F133" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G133" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133" s="34"/>
+      <c r="G133" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" s="17"/>
     </row>
     <row r="134" spans="1:8" ht="15.75">
-      <c r="A134" s="39"/>
-      <c r="B134" s="17" t="s">
+      <c r="A134" s="41"/>
+      <c r="B134" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C134" s="18"/>
-      <c r="D134" s="19" t="str">
+      <c r="C134" s="26"/>
+      <c r="D134" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E134" s="49"/>
-      <c r="F134" s="71">
+      <c r="E134" s="54"/>
+      <c r="F134" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G134" s="71" t="b">
+      <c r="G134" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A135" s="39"/>
-      <c r="B135" s="17" t="s">
+      <c r="A135" s="41"/>
+      <c r="B135" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18" t="str">
+      <c r="C135" s="26"/>
+      <c r="D135" s="26" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E135" s="49"/>
-      <c r="F135" s="71">
+      <c r="E135" s="54"/>
+      <c r="F135" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G135" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135" s="34"/>
+      <c r="G135" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" s="17"/>
     </row>
     <row r="136" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A136" s="39"/>
-      <c r="B136" s="17" t="s">
+      <c r="A136" s="41"/>
+      <c r="B136" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18" t="str">
+      <c r="C136" s="26"/>
+      <c r="D136" s="26" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E136" s="49"/>
-      <c r="F136" s="71">
+      <c r="E136" s="54"/>
+      <c r="F136" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G136" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H136" s="34"/>
+      <c r="G136" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" s="17"/>
     </row>
     <row r="137" spans="1:8" ht="15.75">
-      <c r="A137" s="39"/>
-      <c r="B137" s="17" t="s">
+      <c r="A137" s="41"/>
+      <c r="B137" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C137" s="18"/>
-      <c r="D137" s="19" t="str">
+      <c r="C137" s="26"/>
+      <c r="D137" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E137" s="49"/>
-      <c r="F137" s="71">
+      <c r="E137" s="54"/>
+      <c r="F137" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G137" s="71" t="b">
+      <c r="G137" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="10" customFormat="1" ht="15.75">
-      <c r="A138" s="39"/>
-      <c r="B138" s="17" t="s">
+      <c r="A138" s="41"/>
+      <c r="B138" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C138" s="18"/>
-      <c r="D138" s="19" t="str">
+      <c r="C138" s="26"/>
+      <c r="D138" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E138" s="49"/>
-      <c r="F138" s="72">
+      <c r="E138" s="54"/>
+      <c r="F138" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G138" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138" s="34"/>
+      <c r="G138" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" s="17"/>
     </row>
     <row r="139" spans="1:8" ht="15.75">
-      <c r="A139" s="39"/>
-      <c r="B139" s="17" t="s">
+      <c r="A139" s="41"/>
+      <c r="B139" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C139" s="18"/>
-      <c r="D139" s="19" t="str">
+      <c r="C139" s="26"/>
+      <c r="D139" s="27" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E139" s="49"/>
-      <c r="F139" s="72">
+      <c r="E139" s="54"/>
+      <c r="F139" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G139" s="71" t="b">
+      <c r="G139" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="10" customFormat="1" ht="38.25" customHeight="1">
       <c r="A140" s="13"/>
-      <c r="B140" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="C140" s="67"/>
-      <c r="D140" s="67"/>
-      <c r="E140" s="67"/>
-      <c r="F140" s="72"/>
-      <c r="G140" s="72"/>
-      <c r="H140" s="34"/>
+      <c r="B140" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C140" s="55"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="17"/>
     </row>
     <row r="141" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A141" s="70" t="s">
+      <c r="A141" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B141" s="70"/>
-      <c r="C141" s="70"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="70"/>
-      <c r="F141" s="72"/>
-      <c r="G141" s="72"/>
-      <c r="H141" s="34"/>
+      <c r="B141" s="58"/>
+      <c r="C141" s="58"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="58"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="17"/>
     </row>
     <row r="142" spans="1:8" ht="15" customHeight="1">
       <c r="A142" s="53" t="s">
@@ -10894,99 +10918,137 @@
       </c>
       <c r="D142" s="53"/>
       <c r="E142" s="53"/>
-      <c r="F142" s="72"/>
-      <c r="G142" s="71"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="22"/>
     </row>
     <row r="143" spans="1:8" ht="15.75">
-      <c r="A143" s="68" t="s">
+      <c r="A143" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="B143" s="68"/>
-      <c r="C143" s="69" t="s">
+      <c r="B143" s="56"/>
+      <c r="C143" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D143" s="68"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="72"/>
-      <c r="G143" s="71"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="22"/>
     </row>
     <row r="144" spans="1:8" ht="15.75">
-      <c r="A144" s="68" t="s">
+      <c r="A144" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="B144" s="68"/>
-      <c r="C144" s="68" t="s">
+      <c r="B144" s="56"/>
+      <c r="C144" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="D144" s="68"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="72"/>
-      <c r="G144" s="71"/>
+      <c r="D144" s="56"/>
+      <c r="E144" s="56"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="22"/>
     </row>
     <row r="145" spans="1:5" ht="57.75" customHeight="1">
       <c r="A145" s="12"/>
-      <c r="B145" s="28"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E145" s="14"/>
+      <c r="B145" s="38"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="40"/>
+      <c r="E145" s="19"/>
     </row>
     <row r="146" spans="1:5" ht="13.5" customHeight="1">
       <c r="A146" s="12"/>
-      <c r="B146" s="29" t="s">
+      <c r="B146" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="C146" s="50"/>
-      <c r="D146" s="51"/>
-      <c r="E146" s="52"/>
-    </row>
-    <row r="147" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="148" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="149" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="150" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="151" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="152" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="153" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="154" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="155" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="156" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="157" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="158" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="159" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="160" spans="1:5" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="161" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="162" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="163" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="164" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="165" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="166" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="167" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="168" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="169" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="170" ht="13.5" hidden="1" customHeight="1"/>
+      <c r="C146" s="71"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="73"/>
+    </row>
+    <row r="147" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="148" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="149" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="150" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="151" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="152" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="153" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="154" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="155" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="156" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="157" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="158" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="159" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="160" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="E123:E126"/>
-    <mergeCell ref="A127:A139"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="E128:E139"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="A141:E141"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="E36:E45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="E81:E84"/>
     <mergeCell ref="A85:A90"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="E86:E90"/>
@@ -11003,66 +11065,26 @@
     <mergeCell ref="A101:A106"/>
     <mergeCell ref="E97:E100"/>
     <mergeCell ref="E103:E106"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="E81:E84"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="E36:E45"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="E123:E126"/>
+    <mergeCell ref="A127:A139"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="E128:E139"/>
   </mergeCells>
   <conditionalFormatting sqref="E11:E15 B11:D11">
     <cfRule type="expression" dxfId="106" priority="177">
